--- a/GameJam9/GameJam9/Content/Maptest2.xlsx
+++ b/GameJam9/GameJam9/Content/Maptest2.xlsx
@@ -24,9 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -81,60 +85,11 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -473,7 +428,7 @@
   <dimension ref="A1:CG19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ15" sqref="AJ15"/>
+      <selection activeCell="AU14" sqref="AU14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3638,8 +3593,8 @@
       <c r="Y13">
         <v>0</v>
       </c>
-      <c r="Z13">
-        <v>0</v>
+      <c r="Z13" t="s">
+        <v>1</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -3659,8 +3614,8 @@
       <c r="AF13">
         <v>0</v>
       </c>
-      <c r="AG13">
-        <v>0</v>
+      <c r="AG13" t="s">
+        <v>1</v>
       </c>
       <c r="AH13">
         <v>0</v>
@@ -3686,8 +3641,8 @@
       <c r="AO13">
         <v>0</v>
       </c>
-      <c r="AP13">
-        <v>0</v>
+      <c r="AP13" t="s">
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -3907,8 +3862,8 @@
       <c r="AC14">
         <v>0</v>
       </c>
-      <c r="AD14">
-        <v>0</v>
+      <c r="AD14" t="s">
+        <v>1</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -3931,8 +3886,8 @@
       <c r="AK14">
         <v>0</v>
       </c>
-      <c r="AL14">
-        <v>0</v>
+      <c r="AL14" t="s">
+        <v>1</v>
       </c>
       <c r="AM14">
         <v>0</v>
@@ -5364,31 +5319,34 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"E2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"g"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"fg"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameJam9/GameJam9/Content/Maptest2.xlsx
+++ b/GameJam9/GameJam9/Content/Maptest2.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="9756" windowHeight="7320"/>
   </bookViews>
   <sheets>
-    <sheet name="Maptest" sheetId="1" r:id="rId1"/>
+    <sheet name="Maptest2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,13 +24,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="11">
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>fg</t>
+  </si>
+  <si>
+    <t>iK</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>fg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>fg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -427,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AU14" sqref="AU14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2553,7 +2582,7 @@
       <c r="U9">
         <v>0</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="s">
         <v>0</v>
       </c>
       <c r="W9">
@@ -2586,8 +2615,8 @@
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
+      <c r="AG9" t="s">
+        <v>9</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -2837,14 +2866,14 @@
       <c r="AD10">
         <v>0</v>
       </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
+      <c r="AE10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -2855,8 +2884,8 @@
       <c r="AJ10">
         <v>0</v>
       </c>
-      <c r="AK10">
-        <v>0</v>
+      <c r="AK10" t="s">
+        <v>8</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -2867,17 +2896,17 @@
       <c r="AN10">
         <v>0</v>
       </c>
-      <c r="AO10">
-        <v>0</v>
+      <c r="AO10" t="s">
+        <v>1</v>
       </c>
       <c r="AP10">
         <v>0</v>
       </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
+      <c r="AQ10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>1</v>
       </c>
       <c r="AS10">
         <v>0</v>
@@ -3095,13 +3124,13 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -3125,16 +3154,16 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS11">
         <v>0</v>
@@ -3312,14 +3341,14 @@
       <c r="Q12">
         <v>0</v>
       </c>
-      <c r="R12">
-        <v>0</v>
+      <c r="R12" t="s">
+        <v>1</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12">
-        <v>0</v>
+      <c r="T12" t="s">
+        <v>1</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -3333,11 +3362,11 @@
       <c r="X12">
         <v>0</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
+      <c r="Y12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>1</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -3355,10 +3384,10 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -3385,13 +3414,13 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS12">
         <v>0</v>
@@ -3405,11 +3434,11 @@
       <c r="AV12">
         <v>0</v>
       </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
+      <c r="AW12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>1</v>
       </c>
       <c r="AY12">
         <v>0</v>
@@ -3447,7 +3476,7 @@
       <c r="BJ12">
         <v>0</v>
       </c>
-      <c r="BK12">
+      <c r="BK12" t="s">
         <v>0</v>
       </c>
       <c r="BL12">
@@ -3567,19 +3596,19 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -3587,182 +3616,182 @@
       <c r="W13">
         <v>0</v>
       </c>
-      <c r="X13">
-        <v>0</v>
+      <c r="X13" t="s">
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z13">
+        <v>3</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>2</v>
+      </c>
+      <c r="AR13">
+        <v>2</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>3</v>
+      </c>
+      <c r="AW13">
+        <v>3</v>
+      </c>
+      <c r="AX13">
+        <v>3</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>0</v>
+      </c>
+      <c r="BW13">
+        <v>0</v>
+      </c>
+      <c r="BX13">
+        <v>0</v>
+      </c>
+      <c r="BY13">
+        <v>0</v>
+      </c>
+      <c r="BZ13">
+        <v>0</v>
+      </c>
+      <c r="CA13">
+        <v>0</v>
+      </c>
+      <c r="CB13" t="s">
         <v>1</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0</v>
-      </c>
-      <c r="BH13">
-        <v>0</v>
-      </c>
-      <c r="BI13">
-        <v>0</v>
-      </c>
-      <c r="BJ13">
-        <v>0</v>
-      </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <v>0</v>
-      </c>
-      <c r="BO13">
-        <v>0</v>
-      </c>
-      <c r="BP13">
-        <v>0</v>
-      </c>
-      <c r="BQ13">
-        <v>0</v>
-      </c>
-      <c r="BR13">
-        <v>0</v>
-      </c>
-      <c r="BS13">
-        <v>0</v>
-      </c>
-      <c r="BT13">
-        <v>0</v>
-      </c>
-      <c r="BU13">
-        <v>0</v>
-      </c>
-      <c r="BV13">
-        <v>0</v>
-      </c>
-      <c r="BW13">
-        <v>0</v>
-      </c>
-      <c r="BX13">
-        <v>0</v>
-      </c>
-      <c r="BY13">
-        <v>0</v>
-      </c>
-      <c r="BZ13">
-        <v>0</v>
-      </c>
-      <c r="CA13">
-        <v>0</v>
-      </c>
-      <c r="CB13">
-        <v>0</v>
-      </c>
       <c r="CC13">
-        <v>0</v>
-      </c>
-      <c r="CD13">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>3</v>
       </c>
       <c r="CE13">
         <v>0</v>
@@ -3776,13 +3805,13 @@
     </row>
     <row r="14" spans="1:85" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3803,37 +3832,37 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>3</v>
-      </c>
-      <c r="N14">
-        <v>3</v>
-      </c>
-      <c r="O14">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -3842,19 +3871,19 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <v>3</v>
       </c>
       <c r="Y14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -3862,90 +3891,90 @@
       <c r="AC14">
         <v>0</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>2</v>
+      </c>
+      <c r="AX14">
+        <v>2</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="s">
         <v>1</v>
       </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>3</v>
-      </c>
-      <c r="AH14">
-        <v>3</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="s">
+      <c r="BE14" t="s">
         <v>1</v>
       </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>3</v>
-      </c>
-      <c r="AQ14">
-        <v>3</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>3</v>
-      </c>
-      <c r="AZ14">
-        <v>3</v>
-      </c>
-      <c r="BA14">
-        <v>3</v>
-      </c>
-      <c r="BB14">
-        <v>3</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
-      <c r="BD14">
-        <v>0</v>
-      </c>
-      <c r="BE14">
-        <v>0</v>
-      </c>
       <c r="BF14">
         <v>0</v>
       </c>
@@ -3956,58 +3985,58 @@
         <v>0</v>
       </c>
       <c r="BI14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BJ14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BK14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BL14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BM14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BN14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BO14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BP14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BQ14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BR14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BS14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BT14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BW14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BX14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BY14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BZ14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA14">
         <v>3</v>
@@ -4016,256 +4045,256 @@
         <v>3</v>
       </c>
       <c r="CC14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CD14">
         <v>3</v>
       </c>
-      <c r="CE14">
-        <v>3</v>
+      <c r="CE14" t="s">
+        <v>1</v>
       </c>
       <c r="CF14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CG14">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:85" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <v>2</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>2</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>3</v>
+      </c>
+      <c r="BD15">
+        <v>3</v>
+      </c>
+      <c r="BE15">
+        <v>3</v>
+      </c>
+      <c r="BF15">
+        <v>3</v>
+      </c>
+      <c r="BG15" t="s">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15" t="s">
         <v>1</v>
       </c>
-      <c r="F15">
+      <c r="BM15" t="s">
         <v>1</v>
       </c>
-      <c r="G15">
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15" t="s">
         <v>1</v>
       </c>
-      <c r="H15">
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>0</v>
+      </c>
+      <c r="BR15">
+        <v>0</v>
+      </c>
+      <c r="BS15">
+        <v>0</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>0</v>
+      </c>
+      <c r="BW15">
+        <v>0</v>
+      </c>
+      <c r="BX15">
+        <v>0</v>
+      </c>
+      <c r="BY15">
+        <v>0</v>
+      </c>
+      <c r="BZ15" t="s">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-      <c r="N15">
-        <v>2</v>
-      </c>
-      <c r="O15">
-        <v>2</v>
-      </c>
-      <c r="P15">
-        <v>2</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <v>3</v>
-      </c>
-      <c r="W15">
-        <v>2</v>
-      </c>
-      <c r="X15">
-        <v>2</v>
-      </c>
-      <c r="Y15">
-        <v>2</v>
-      </c>
-      <c r="Z15">
-        <v>2</v>
-      </c>
-      <c r="AA15">
-        <v>2</v>
-      </c>
-      <c r="AB15">
-        <v>1</v>
-      </c>
-      <c r="AC15">
-        <v>1</v>
-      </c>
-      <c r="AD15">
-        <v>1</v>
-      </c>
-      <c r="AE15">
-        <v>1</v>
-      </c>
-      <c r="AF15">
-        <v>3</v>
-      </c>
-      <c r="AG15">
-        <v>2</v>
-      </c>
-      <c r="AH15">
-        <v>2</v>
-      </c>
-      <c r="AI15">
-        <v>1</v>
-      </c>
-      <c r="AJ15">
-        <v>1</v>
-      </c>
-      <c r="AK15">
-        <v>1</v>
-      </c>
-      <c r="AL15">
-        <v>1</v>
-      </c>
-      <c r="AM15">
-        <v>1</v>
-      </c>
-      <c r="AN15">
-        <v>1</v>
-      </c>
-      <c r="AO15">
-        <v>1</v>
-      </c>
-      <c r="AP15">
-        <v>2</v>
-      </c>
-      <c r="AQ15">
-        <v>2</v>
-      </c>
-      <c r="AR15">
-        <v>1</v>
-      </c>
-      <c r="AS15">
-        <v>1</v>
-      </c>
-      <c r="AT15">
-        <v>1</v>
-      </c>
-      <c r="AU15">
-        <v>1</v>
-      </c>
-      <c r="AV15">
-        <v>1</v>
-      </c>
-      <c r="AW15">
-        <v>1</v>
-      </c>
-      <c r="AX15">
-        <v>1</v>
-      </c>
-      <c r="AY15">
-        <v>2</v>
-      </c>
-      <c r="AZ15">
-        <v>2</v>
-      </c>
-      <c r="BA15">
-        <v>2</v>
-      </c>
-      <c r="BB15">
-        <v>2</v>
-      </c>
-      <c r="BC15">
-        <v>1</v>
-      </c>
-      <c r="BD15">
-        <v>1</v>
-      </c>
-      <c r="BE15">
-        <v>1</v>
-      </c>
-      <c r="BF15">
-        <v>1</v>
-      </c>
-      <c r="BG15">
-        <v>1</v>
-      </c>
-      <c r="BH15">
-        <v>1</v>
-      </c>
-      <c r="BI15">
-        <v>2</v>
-      </c>
-      <c r="BJ15">
-        <v>2</v>
-      </c>
-      <c r="BK15">
-        <v>2</v>
-      </c>
-      <c r="BL15">
-        <v>2</v>
-      </c>
-      <c r="BM15">
-        <v>2</v>
-      </c>
-      <c r="BN15">
-        <v>2</v>
-      </c>
-      <c r="BO15">
-        <v>2</v>
-      </c>
-      <c r="BP15">
-        <v>2</v>
-      </c>
-      <c r="BQ15">
-        <v>2</v>
-      </c>
-      <c r="BR15">
-        <v>2</v>
-      </c>
-      <c r="BS15">
-        <v>2</v>
-      </c>
-      <c r="BT15">
-        <v>2</v>
-      </c>
-      <c r="BU15">
-        <v>2</v>
-      </c>
-      <c r="BV15">
-        <v>2</v>
-      </c>
-      <c r="BW15">
-        <v>2</v>
-      </c>
-      <c r="BX15">
-        <v>2</v>
-      </c>
-      <c r="BY15">
-        <v>2</v>
-      </c>
-      <c r="BZ15">
-        <v>2</v>
-      </c>
       <c r="CA15">
         <v>2</v>
       </c>
@@ -4279,54 +4308,54 @@
         <v>2</v>
       </c>
       <c r="CE15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CF15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CG15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:85" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -4334,29 +4363,29 @@
       <c r="O16">
         <v>2</v>
       </c>
-      <c r="P16">
-        <v>2</v>
+      <c r="P16" t="s">
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>2</v>
-      </c>
-      <c r="W16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1</v>
       </c>
       <c r="X16">
         <v>2</v>
@@ -4364,92 +4393,92 @@
       <c r="Y16">
         <v>2</v>
       </c>
-      <c r="Z16">
-        <v>2</v>
+      <c r="Z16" t="s">
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>2</v>
-      </c>
-      <c r="AG16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>1</v>
       </c>
       <c r="AH16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <v>2</v>
-      </c>
-      <c r="AP16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ16">
-        <v>2</v>
-      </c>
-      <c r="BA16">
-        <v>2</v>
-      </c>
-      <c r="BB16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>1</v>
       </c>
       <c r="BC16">
         <v>2</v>
@@ -4464,64 +4493,64 @@
         <v>2</v>
       </c>
       <c r="BG16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI16">
-        <v>2</v>
-      </c>
-      <c r="BJ16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>4</v>
       </c>
       <c r="BK16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BM16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BN16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BQ16">
-        <v>2</v>
-      </c>
-      <c r="BR16">
-        <v>2</v>
-      </c>
-      <c r="BS16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>4</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>1</v>
       </c>
       <c r="BT16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BU16">
-        <v>2</v>
-      </c>
-      <c r="BV16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>1</v>
       </c>
       <c r="BW16">
-        <v>2</v>
-      </c>
-      <c r="BX16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>1</v>
       </c>
       <c r="BY16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BZ16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CA16">
         <v>2</v>
@@ -4538,49 +4567,49 @@
       <c r="CE16">
         <v>2</v>
       </c>
-      <c r="CF16">
-        <v>2</v>
+      <c r="CF16" t="s">
+        <v>1</v>
       </c>
       <c r="CG16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:85" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17">
         <v>2</v>
@@ -4592,28 +4621,28 @@
         <v>2</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>2</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="U17">
-        <v>2</v>
-      </c>
-      <c r="V17">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" t="s">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X17">
         <v>2</v>
@@ -4622,91 +4651,91 @@
         <v>2</v>
       </c>
       <c r="Z17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB17">
-        <v>2</v>
-      </c>
-      <c r="AC17">
-        <v>2</v>
-      </c>
-      <c r="AD17">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>1</v>
       </c>
       <c r="AE17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH17">
-        <v>2</v>
-      </c>
-      <c r="AI17">
-        <v>2</v>
-      </c>
-      <c r="AJ17">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>5</v>
       </c>
       <c r="AK17">
-        <v>2</v>
-      </c>
-      <c r="AL17">
-        <v>2</v>
-      </c>
-      <c r="AM17">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>6</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
-      </c>
-      <c r="AR17">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>1</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2</v>
-      </c>
-      <c r="AU17">
-        <v>2</v>
-      </c>
-      <c r="AV17">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>1</v>
       </c>
       <c r="AW17">
-        <v>2</v>
-      </c>
-      <c r="AX17">
-        <v>2</v>
-      </c>
-      <c r="AY17">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>1</v>
       </c>
       <c r="AZ17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC17">
         <v>2</v>
@@ -4727,13 +4756,13 @@
         <v>2</v>
       </c>
       <c r="BI17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BK17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL17">
         <v>2</v>
@@ -4748,34 +4777,34 @@
         <v>2</v>
       </c>
       <c r="BP17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BQ17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BR17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BU17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BV17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BX17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BY17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BZ17">
         <v>2</v>
@@ -4796,10 +4825,10 @@
         <v>2</v>
       </c>
       <c r="CF17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CG17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:85" x14ac:dyDescent="0.45">
@@ -4810,25 +4839,25 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -4852,22 +4881,22 @@
         <v>2</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W18">
         <v>2</v>
@@ -4885,19 +4914,19 @@
         <v>2</v>
       </c>
       <c r="AB18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG18">
         <v>2</v>
@@ -4906,25 +4935,25 @@
         <v>2</v>
       </c>
       <c r="AI18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP18">
         <v>2</v>
@@ -4933,28 +4962,28 @@
         <v>2</v>
       </c>
       <c r="AR18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ18">
         <v>2</v>

--- a/GameJam9/GameJam9/Content/Maptest2.xlsx
+++ b/GameJam9/GameJam9/Content/Maptest2.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="9756" windowHeight="7320"/>
   </bookViews>
   <sheets>
-    <sheet name="Maptest2" sheetId="1" r:id="rId1"/>
+    <sheet name="Maptest" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,42 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="11">
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>fg</t>
-  </si>
-  <si>
-    <t>iK</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>fg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>fg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -456,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AC18" sqref="AC18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AU14" sqref="AU14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2582,7 +2553,7 @@
       <c r="U9">
         <v>0</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
@@ -2615,8 +2586,8 @@
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AG9" t="s">
-        <v>9</v>
+      <c r="AG9">
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -2866,14 +2837,14 @@
       <c r="AD10">
         <v>0</v>
       </c>
-      <c r="AE10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>1</v>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -2884,8 +2855,8 @@
       <c r="AJ10">
         <v>0</v>
       </c>
-      <c r="AK10" t="s">
-        <v>8</v>
+      <c r="AK10">
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -2896,17 +2867,17 @@
       <c r="AN10">
         <v>0</v>
       </c>
-      <c r="AO10" t="s">
-        <v>1</v>
+      <c r="AO10">
+        <v>0</v>
       </c>
       <c r="AP10">
         <v>0</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>1</v>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
       </c>
       <c r="AS10">
         <v>0</v>
@@ -3124,13 +3095,13 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -3154,16 +3125,16 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS11">
         <v>0</v>
@@ -3341,14 +3312,14 @@
       <c r="Q12">
         <v>0</v>
       </c>
-      <c r="R12" t="s">
-        <v>1</v>
+      <c r="R12">
+        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12" t="s">
-        <v>1</v>
+      <c r="T12">
+        <v>0</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -3362,11 +3333,11 @@
       <c r="X12">
         <v>0</v>
       </c>
-      <c r="Y12" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>1</v>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -3384,10 +3355,10 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -3414,13 +3385,13 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS12">
         <v>0</v>
@@ -3434,11 +3405,11 @@
       <c r="AV12">
         <v>0</v>
       </c>
-      <c r="AW12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>1</v>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
       </c>
       <c r="AY12">
         <v>0</v>
@@ -3476,7 +3447,7 @@
       <c r="BJ12">
         <v>0</v>
       </c>
-      <c r="BK12" t="s">
+      <c r="BK12">
         <v>0</v>
       </c>
       <c r="BL12">
@@ -3596,19 +3567,19 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -3616,15 +3587,15 @@
       <c r="W13">
         <v>0</v>
       </c>
-      <c r="X13" t="s">
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="s">
         <v>1</v>
       </c>
-      <c r="Y13">
-        <v>3</v>
-      </c>
-      <c r="Z13">
-        <v>3</v>
-      </c>
       <c r="AA13">
         <v>0</v>
       </c>
@@ -3643,8 +3614,8 @@
       <c r="AF13">
         <v>0</v>
       </c>
-      <c r="AG13">
-        <v>0</v>
+      <c r="AG13" t="s">
+        <v>1</v>
       </c>
       <c r="AH13">
         <v>0</v>
@@ -3670,14 +3641,14 @@
       <c r="AO13">
         <v>0</v>
       </c>
-      <c r="AP13">
-        <v>0</v>
+      <c r="AP13" t="s">
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS13">
         <v>0</v>
@@ -3689,13 +3660,13 @@
         <v>0</v>
       </c>
       <c r="AV13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AY13">
         <v>0</v>
@@ -3784,14 +3755,14 @@
       <c r="CA13">
         <v>0</v>
       </c>
-      <c r="CB13" t="s">
-        <v>1</v>
+      <c r="CB13">
+        <v>0</v>
       </c>
       <c r="CC13">
-        <v>3</v>
-      </c>
-      <c r="CD13" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="CD13">
+        <v>0</v>
       </c>
       <c r="CE13">
         <v>0</v>
@@ -3805,13 +3776,13 @@
     </row>
     <row r="14" spans="1:85" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3832,37 +3803,37 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>1</v>
-      </c>
-      <c r="O14" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -3871,19 +3842,19 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X14">
         <v>3</v>
       </c>
       <c r="Y14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -3891,8 +3862,8 @@
       <c r="AC14">
         <v>0</v>
       </c>
-      <c r="AD14">
-        <v>0</v>
+      <c r="AD14" t="s">
+        <v>1</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -3901,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI14">
         <v>0</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ14" t="s">
         <v>0</v>
       </c>
       <c r="AK14">
         <v>0</v>
       </c>
-      <c r="AL14">
-        <v>0</v>
+      <c r="AL14" t="s">
+        <v>1</v>
       </c>
       <c r="AM14">
         <v>0</v>
@@ -3928,10 +3899,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3949,31 +3920,31 @@
         <v>0</v>
       </c>
       <c r="AW14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AZ14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC14">
         <v>0</v>
       </c>
-      <c r="BD14" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>1</v>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
       </c>
       <c r="BF14">
         <v>0</v>
@@ -3985,58 +3956,58 @@
         <v>0</v>
       </c>
       <c r="BI14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BJ14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BM14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BN14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BO14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BP14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BQ14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BS14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BT14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BV14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BW14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BX14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BY14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BZ14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CA14">
         <v>3</v>
@@ -4045,255 +4016,255 @@
         <v>3</v>
       </c>
       <c r="CC14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CD14">
         <v>3</v>
       </c>
-      <c r="CE14" t="s">
-        <v>1</v>
+      <c r="CE14">
+        <v>3</v>
       </c>
       <c r="CF14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:85" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
         <v>3</v>
       </c>
-      <c r="O15">
+      <c r="W15">
+        <v>2</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <v>2</v>
+      </c>
+      <c r="Z15">
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <v>2</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
         <v>3</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="S15">
-        <v>2</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>2</v>
-      </c>
-      <c r="Y15">
-        <v>2</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
       <c r="AG15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF15">
-        <v>3</v>
-      </c>
-      <c r="BG15" t="s">
         <v>1</v>
       </c>
+      <c r="BG15">
+        <v>1</v>
+      </c>
       <c r="BH15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK15">
-        <v>0</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>1</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="BL15">
+        <v>2</v>
+      </c>
+      <c r="BM15">
+        <v>2</v>
       </c>
       <c r="BN15">
-        <v>0</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="BO15">
+        <v>2</v>
       </c>
       <c r="BP15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BQ15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BY15">
-        <v>0</v>
-      </c>
-      <c r="BZ15" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="BZ15">
+        <v>2</v>
       </c>
       <c r="CA15">
         <v>2</v>
@@ -4308,54 +4279,54 @@
         <v>2</v>
       </c>
       <c r="CE15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CF15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CG15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:85" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -4363,29 +4334,29 @@
       <c r="O16">
         <v>2</v>
       </c>
-      <c r="P16" t="s">
-        <v>1</v>
+      <c r="P16">
+        <v>2</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <v>2</v>
       </c>
       <c r="X16">
         <v>2</v>
@@ -4393,92 +4364,92 @@
       <c r="Y16">
         <v>2</v>
       </c>
-      <c r="Z16" t="s">
-        <v>1</v>
+      <c r="Z16">
+        <v>2</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AG16">
+        <v>2</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AP16">
+        <v>2</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ16">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="BA16">
+        <v>2</v>
+      </c>
+      <c r="BB16">
+        <v>2</v>
       </c>
       <c r="BC16">
         <v>2</v>
@@ -4493,64 +4464,64 @@
         <v>2</v>
       </c>
       <c r="BG16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI16">
-        <v>0</v>
-      </c>
-      <c r="BJ16" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="BJ16">
+        <v>2</v>
       </c>
       <c r="BK16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BN16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BQ16">
-        <v>0</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS16" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="BR16">
+        <v>2</v>
+      </c>
+      <c r="BS16">
+        <v>2</v>
       </c>
       <c r="BT16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU16">
-        <v>0</v>
-      </c>
-      <c r="BV16" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="BV16">
+        <v>2</v>
       </c>
       <c r="BW16">
-        <v>0</v>
-      </c>
-      <c r="BX16" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="BX16">
+        <v>2</v>
       </c>
       <c r="BY16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BZ16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CA16">
         <v>2</v>
@@ -4567,49 +4538,49 @@
       <c r="CE16">
         <v>2</v>
       </c>
-      <c r="CF16" t="s">
-        <v>1</v>
+      <c r="CF16">
+        <v>2</v>
       </c>
       <c r="CG16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:85" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17">
         <v>2</v>
@@ -4621,28 +4592,28 @@
         <v>2</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17" t="s">
-        <v>3</v>
-      </c>
-      <c r="U17" t="s">
-        <v>1</v>
-      </c>
-      <c r="V17" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
       </c>
       <c r="W17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X17">
         <v>2</v>
@@ -4651,91 +4622,91 @@
         <v>2</v>
       </c>
       <c r="Z17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <v>2</v>
+      </c>
+      <c r="AD17">
+        <v>2</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH17">
-        <v>3</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="AI17">
+        <v>2</v>
+      </c>
+      <c r="AJ17">
+        <v>2</v>
       </c>
       <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="AL17">
+        <v>2</v>
+      </c>
+      <c r="AM17">
+        <v>2</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
-        <v>3</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AR17">
+        <v>2</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AU17">
+        <v>2</v>
+      </c>
+      <c r="AV17">
+        <v>2</v>
       </c>
       <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AX17">
+        <v>2</v>
+      </c>
+      <c r="AY17">
+        <v>2</v>
       </c>
       <c r="AZ17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC17">
         <v>2</v>
@@ -4756,13 +4727,13 @@
         <v>2</v>
       </c>
       <c r="BI17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BK17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BL17">
         <v>2</v>
@@ -4777,34 +4748,34 @@
         <v>2</v>
       </c>
       <c r="BP17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BQ17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BR17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BS17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BT17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BU17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BV17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BW17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BX17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BY17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BZ17">
         <v>2</v>
@@ -4825,10 +4796,10 @@
         <v>2</v>
       </c>
       <c r="CF17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CG17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:85" x14ac:dyDescent="0.45">
@@ -4839,25 +4810,25 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -4881,22 +4852,22 @@
         <v>2</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W18">
         <v>2</v>
@@ -4914,19 +4885,19 @@
         <v>2</v>
       </c>
       <c r="AB18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG18">
         <v>2</v>
@@ -4935,25 +4906,25 @@
         <v>2</v>
       </c>
       <c r="AI18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP18">
         <v>2</v>
@@ -4962,28 +4933,28 @@
         <v>2</v>
       </c>
       <c r="AR18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ18">
         <v>2</v>

--- a/GameJam9/GameJam9/Content/Maptest2.xlsx
+++ b/GameJam9/GameJam9/Content/Maptest2.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="9756" windowHeight="7320"/>
   </bookViews>
   <sheets>
-    <sheet name="Maptest" sheetId="1" r:id="rId1"/>
+    <sheet name="Maptest2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,13 +24,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="17">
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>fg</t>
+  </si>
+  <si>
+    <t>iK</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>fg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fg</t>
+    <t>E2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -427,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AU14" sqref="AU14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BQ7" sqref="BQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -438,13 +491,13 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -591,103 +644,103 @@
         <v>0</v>
       </c>
       <c r="BA1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BQ1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BY1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BZ1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CA1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CC1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CD1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CF1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CG1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.45">
@@ -695,10 +748,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -848,103 +901,103 @@
         <v>0</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH2">
         <v>0</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BQ2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BY2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BZ2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CA2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CC2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CD2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CF2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CG2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:85" x14ac:dyDescent="0.45">
@@ -952,10 +1005,10 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1105,76 +1158,76 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE3">
         <v>0</v>
       </c>
-      <c r="BF3">
-        <v>0</v>
+      <c r="BF3" t="s">
+        <v>9</v>
       </c>
       <c r="BG3">
         <v>0</v>
       </c>
-      <c r="BH3">
-        <v>0</v>
+      <c r="BH3" t="s">
+        <v>9</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL3">
         <v>0</v>
       </c>
       <c r="BM3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BQ3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BY3">
         <v>0</v>
@@ -1192,16 +1245,16 @@
         <v>0</v>
       </c>
       <c r="CD3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CF3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CG3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:85" x14ac:dyDescent="0.45">
@@ -1209,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1365,34 +1418,34 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE4">
         <v>0</v>
       </c>
       <c r="BF4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL4">
         <v>0</v>
@@ -1400,38 +1453,38 @@
       <c r="BM4">
         <v>0</v>
       </c>
-      <c r="BN4">
-        <v>0</v>
+      <c r="BN4" t="s">
+        <v>9</v>
       </c>
       <c r="BO4">
         <v>0</v>
       </c>
       <c r="BP4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BQ4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BY4">
         <v>0</v>
@@ -1449,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="CD4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CF4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CG4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:85" x14ac:dyDescent="0.45">
@@ -1622,73 +1675,73 @@
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE5">
         <v>0</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO5">
         <v>0</v>
       </c>
       <c r="BP5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BQ5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BY5">
         <v>0</v>
@@ -1709,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="CE5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CF5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CG5">
         <v>0</v>
@@ -1879,43 +1932,43 @@
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO6">
         <v>0</v>
@@ -1923,26 +1976,26 @@
       <c r="BP6">
         <v>0</v>
       </c>
-      <c r="BQ6">
-        <v>0</v>
+      <c r="BQ6" t="s">
+        <v>9</v>
       </c>
       <c r="BR6">
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX6">
         <v>0</v>
@@ -1966,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="CE6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CF6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CG6">
         <v>0</v>
@@ -2139,13 +2192,13 @@
         <v>0</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF7">
         <v>0</v>
@@ -2157,49 +2210,49 @@
         <v>0</v>
       </c>
       <c r="BI7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO7">
         <v>0</v>
       </c>
       <c r="BP7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BQ7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX7">
         <v>0</v>
@@ -2223,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="CE7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CF7">
         <v>0</v>
@@ -2396,10 +2449,10 @@
         <v>0</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE8">
         <v>0</v>
@@ -2414,49 +2467,49 @@
         <v>0</v>
       </c>
       <c r="BI8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BQ8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX8">
         <v>0</v>
@@ -2553,7 +2606,7 @@
       <c r="U9">
         <v>0</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="s">
         <v>0</v>
       </c>
       <c r="W9">
@@ -2586,8 +2639,8 @@
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
+      <c r="AG9" t="s">
+        <v>7</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -2653,10 +2706,10 @@
         <v>0</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE9">
         <v>0</v>
@@ -2674,46 +2727,46 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BQ9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX9">
         <v>0</v>
@@ -2837,14 +2890,14 @@
       <c r="AD10">
         <v>0</v>
       </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
+      <c r="AE10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -2855,8 +2908,8 @@
       <c r="AJ10">
         <v>0</v>
       </c>
-      <c r="AK10">
-        <v>0</v>
+      <c r="AK10" t="s">
+        <v>8</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -2867,17 +2920,17 @@
       <c r="AN10">
         <v>0</v>
       </c>
-      <c r="AO10">
-        <v>0</v>
+      <c r="AO10" t="s">
+        <v>1</v>
       </c>
       <c r="AP10">
         <v>0</v>
       </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
+      <c r="AQ10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>1</v>
       </c>
       <c r="AS10">
         <v>0</v>
@@ -2913,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="BD10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE10">
         <v>0</v>
@@ -2931,16 +2984,16 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN10">
         <v>0</v>
@@ -2952,19 +3005,19 @@
         <v>0</v>
       </c>
       <c r="BQ10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV10">
         <v>0</v>
@@ -3095,13 +3148,13 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -3125,16 +3178,16 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS11">
         <v>0</v>
@@ -3170,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="BD11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE11">
         <v>0</v>
@@ -3191,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="BK11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM11">
         <v>0</v>
@@ -3209,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="BQ11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS11">
         <v>0</v>
@@ -3312,14 +3365,14 @@
       <c r="Q12">
         <v>0</v>
       </c>
-      <c r="R12">
-        <v>0</v>
+      <c r="R12" t="s">
+        <v>1</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12">
-        <v>0</v>
+      <c r="T12" t="s">
+        <v>1</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -3333,11 +3386,11 @@
       <c r="X12">
         <v>0</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
+      <c r="Y12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>1</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -3355,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -3385,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS12">
         <v>0</v>
@@ -3405,11 +3458,11 @@
       <c r="AV12">
         <v>0</v>
       </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
+      <c r="AW12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>1</v>
       </c>
       <c r="AY12">
         <v>0</v>
@@ -3435,8 +3488,8 @@
       <c r="BF12">
         <v>0</v>
       </c>
-      <c r="BG12">
-        <v>0</v>
+      <c r="BG12" t="s">
+        <v>8</v>
       </c>
       <c r="BH12">
         <v>0</v>
@@ -3451,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="BL12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM12">
         <v>0</v>
@@ -3469,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="BR12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS12">
         <v>0</v>
@@ -3567,19 +3620,19 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -3587,182 +3640,182 @@
       <c r="W13">
         <v>0</v>
       </c>
-      <c r="X13">
-        <v>0</v>
+      <c r="X13" t="s">
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z13">
+        <v>3</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>2</v>
+      </c>
+      <c r="AR13">
+        <v>2</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>3</v>
+      </c>
+      <c r="AW13">
+        <v>3</v>
+      </c>
+      <c r="AX13">
+        <v>3</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>0</v>
+      </c>
+      <c r="BW13">
+        <v>0</v>
+      </c>
+      <c r="BX13">
+        <v>0</v>
+      </c>
+      <c r="BY13">
+        <v>0</v>
+      </c>
+      <c r="BZ13">
+        <v>0</v>
+      </c>
+      <c r="CA13">
+        <v>0</v>
+      </c>
+      <c r="CB13" t="s">
         <v>1</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0</v>
-      </c>
-      <c r="BH13">
-        <v>0</v>
-      </c>
-      <c r="BI13">
-        <v>0</v>
-      </c>
-      <c r="BJ13">
-        <v>0</v>
-      </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <v>0</v>
-      </c>
-      <c r="BO13">
-        <v>0</v>
-      </c>
-      <c r="BP13">
-        <v>0</v>
-      </c>
-      <c r="BQ13">
-        <v>0</v>
-      </c>
-      <c r="BR13">
-        <v>0</v>
-      </c>
-      <c r="BS13">
-        <v>0</v>
-      </c>
-      <c r="BT13">
-        <v>0</v>
-      </c>
-      <c r="BU13">
-        <v>0</v>
-      </c>
-      <c r="BV13">
-        <v>0</v>
-      </c>
-      <c r="BW13">
-        <v>0</v>
-      </c>
-      <c r="BX13">
-        <v>0</v>
-      </c>
-      <c r="BY13">
-        <v>0</v>
-      </c>
-      <c r="BZ13">
-        <v>0</v>
-      </c>
-      <c r="CA13">
-        <v>0</v>
-      </c>
-      <c r="CB13">
-        <v>0</v>
-      </c>
       <c r="CC13">
-        <v>0</v>
-      </c>
-      <c r="CD13">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>3</v>
       </c>
       <c r="CE13">
         <v>0</v>
@@ -3776,13 +3829,13 @@
     </row>
     <row r="14" spans="1:85" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3803,37 +3856,37 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -3842,19 +3895,19 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <v>3</v>
       </c>
       <c r="Y14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -3862,90 +3915,90 @@
       <c r="AC14">
         <v>0</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>2</v>
+      </c>
+      <c r="AX14">
+        <v>2</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="s">
         <v>1</v>
       </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>3</v>
-      </c>
-      <c r="AH14">
-        <v>3</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="s">
+      <c r="BE14" t="s">
         <v>1</v>
       </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>3</v>
-      </c>
-      <c r="AQ14">
-        <v>3</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>3</v>
-      </c>
-      <c r="AZ14">
-        <v>3</v>
-      </c>
-      <c r="BA14">
-        <v>3</v>
-      </c>
-      <c r="BB14">
-        <v>3</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
-      <c r="BD14">
-        <v>0</v>
-      </c>
-      <c r="BE14">
-        <v>0</v>
-      </c>
       <c r="BF14">
         <v>0</v>
       </c>
@@ -3956,58 +4009,58 @@
         <v>0</v>
       </c>
       <c r="BI14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BJ14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BK14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BL14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BM14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BN14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BO14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BP14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BQ14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BR14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BS14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BT14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BW14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BX14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BY14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BZ14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA14">
         <v>3</v>
@@ -4016,256 +4069,256 @@
         <v>3</v>
       </c>
       <c r="CC14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CD14">
         <v>3</v>
       </c>
-      <c r="CE14">
-        <v>3</v>
+      <c r="CE14" t="s">
+        <v>1</v>
       </c>
       <c r="CF14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CG14">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:85" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <v>2</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>2</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15" t="s">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="BM15" t="s">
         <v>1</v>
       </c>
-      <c r="F15">
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>0</v>
+      </c>
+      <c r="BR15">
+        <v>0</v>
+      </c>
+      <c r="BS15">
+        <v>0</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>0</v>
+      </c>
+      <c r="BW15">
+        <v>0</v>
+      </c>
+      <c r="BX15">
+        <v>0</v>
+      </c>
+      <c r="BY15">
+        <v>0</v>
+      </c>
+      <c r="BZ15" t="s">
         <v>1</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-      <c r="N15">
-        <v>2</v>
-      </c>
-      <c r="O15">
-        <v>2</v>
-      </c>
-      <c r="P15">
-        <v>2</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <v>3</v>
-      </c>
-      <c r="W15">
-        <v>2</v>
-      </c>
-      <c r="X15">
-        <v>2</v>
-      </c>
-      <c r="Y15">
-        <v>2</v>
-      </c>
-      <c r="Z15">
-        <v>2</v>
-      </c>
-      <c r="AA15">
-        <v>2</v>
-      </c>
-      <c r="AB15">
-        <v>1</v>
-      </c>
-      <c r="AC15">
-        <v>1</v>
-      </c>
-      <c r="AD15">
-        <v>1</v>
-      </c>
-      <c r="AE15">
-        <v>1</v>
-      </c>
-      <c r="AF15">
-        <v>3</v>
-      </c>
-      <c r="AG15">
-        <v>2</v>
-      </c>
-      <c r="AH15">
-        <v>2</v>
-      </c>
-      <c r="AI15">
-        <v>1</v>
-      </c>
-      <c r="AJ15">
-        <v>1</v>
-      </c>
-      <c r="AK15">
-        <v>1</v>
-      </c>
-      <c r="AL15">
-        <v>1</v>
-      </c>
-      <c r="AM15">
-        <v>1</v>
-      </c>
-      <c r="AN15">
-        <v>1</v>
-      </c>
-      <c r="AO15">
-        <v>1</v>
-      </c>
-      <c r="AP15">
-        <v>2</v>
-      </c>
-      <c r="AQ15">
-        <v>2</v>
-      </c>
-      <c r="AR15">
-        <v>1</v>
-      </c>
-      <c r="AS15">
-        <v>1</v>
-      </c>
-      <c r="AT15">
-        <v>1</v>
-      </c>
-      <c r="AU15">
-        <v>1</v>
-      </c>
-      <c r="AV15">
-        <v>1</v>
-      </c>
-      <c r="AW15">
-        <v>1</v>
-      </c>
-      <c r="AX15">
-        <v>1</v>
-      </c>
-      <c r="AY15">
-        <v>2</v>
-      </c>
-      <c r="AZ15">
-        <v>2</v>
-      </c>
-      <c r="BA15">
-        <v>2</v>
-      </c>
-      <c r="BB15">
-        <v>2</v>
-      </c>
-      <c r="BC15">
-        <v>1</v>
-      </c>
-      <c r="BD15">
-        <v>1</v>
-      </c>
-      <c r="BE15">
-        <v>1</v>
-      </c>
-      <c r="BF15">
-        <v>1</v>
-      </c>
-      <c r="BG15">
-        <v>1</v>
-      </c>
-      <c r="BH15">
-        <v>1</v>
-      </c>
-      <c r="BI15">
-        <v>2</v>
-      </c>
-      <c r="BJ15">
-        <v>2</v>
-      </c>
-      <c r="BK15">
-        <v>2</v>
-      </c>
-      <c r="BL15">
-        <v>2</v>
-      </c>
-      <c r="BM15">
-        <v>2</v>
-      </c>
-      <c r="BN15">
-        <v>2</v>
-      </c>
-      <c r="BO15">
-        <v>2</v>
-      </c>
-      <c r="BP15">
-        <v>2</v>
-      </c>
-      <c r="BQ15">
-        <v>2</v>
-      </c>
-      <c r="BR15">
-        <v>2</v>
-      </c>
-      <c r="BS15">
-        <v>2</v>
-      </c>
-      <c r="BT15">
-        <v>2</v>
-      </c>
-      <c r="BU15">
-        <v>2</v>
-      </c>
-      <c r="BV15">
-        <v>2</v>
-      </c>
-      <c r="BW15">
-        <v>2</v>
-      </c>
-      <c r="BX15">
-        <v>2</v>
-      </c>
-      <c r="BY15">
-        <v>2</v>
-      </c>
-      <c r="BZ15">
-        <v>2</v>
-      </c>
       <c r="CA15">
         <v>2</v>
       </c>
@@ -4279,84 +4332,84 @@
         <v>2</v>
       </c>
       <c r="CE15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CF15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CG15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:85" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O16">
-        <v>2</v>
-      </c>
-      <c r="P16">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>2</v>
-      </c>
-      <c r="W16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1</v>
       </c>
       <c r="X16">
         <v>2</v>
@@ -4364,164 +4417,164 @@
       <c r="Y16">
         <v>2</v>
       </c>
-      <c r="Z16">
-        <v>2</v>
+      <c r="Z16" t="s">
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>2</v>
-      </c>
-      <c r="AG16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>1</v>
       </c>
       <c r="AH16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <v>2</v>
-      </c>
-      <c r="AP16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ16">
-        <v>2</v>
-      </c>
-      <c r="BA16">
-        <v>2</v>
-      </c>
-      <c r="BB16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>1</v>
       </c>
       <c r="BC16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF16">
-        <v>2</v>
-      </c>
-      <c r="BG16">
-        <v>2</v>
-      </c>
-      <c r="BH16">
-        <v>2</v>
-      </c>
-      <c r="BI16">
-        <v>2</v>
-      </c>
-      <c r="BJ16">
-        <v>2</v>
-      </c>
-      <c r="BK16">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>7</v>
       </c>
       <c r="BL16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BM16">
-        <v>2</v>
-      </c>
-      <c r="BN16">
-        <v>2</v>
-      </c>
-      <c r="BO16">
-        <v>2</v>
-      </c>
-      <c r="BP16">
-        <v>2</v>
-      </c>
-      <c r="BQ16">
-        <v>2</v>
-      </c>
-      <c r="BR16">
-        <v>2</v>
-      </c>
-      <c r="BS16">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>10</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>4</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>1</v>
       </c>
       <c r="BT16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BU16">
-        <v>2</v>
-      </c>
-      <c r="BV16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>1</v>
       </c>
       <c r="BW16">
-        <v>2</v>
-      </c>
-      <c r="BX16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>1</v>
       </c>
       <c r="BY16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BZ16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CA16">
         <v>2</v>
@@ -4530,57 +4583,57 @@
         <v>2</v>
       </c>
       <c r="CC16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CD16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CE16">
-        <v>2</v>
-      </c>
-      <c r="CF16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>1</v>
       </c>
       <c r="CG16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:85" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17">
         <v>2</v>
@@ -4592,28 +4645,28 @@
         <v>2</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>2</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="U17">
-        <v>2</v>
-      </c>
-      <c r="V17">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" t="s">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X17">
         <v>2</v>
@@ -4621,95 +4674,95 @@
       <c r="Y17">
         <v>2</v>
       </c>
-      <c r="Z17">
-        <v>2</v>
-      </c>
-      <c r="AA17">
-        <v>2</v>
-      </c>
-      <c r="AB17">
-        <v>2</v>
+      <c r="Z17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>15</v>
       </c>
       <c r="AC17">
-        <v>2</v>
-      </c>
-      <c r="AD17">
-        <v>2</v>
-      </c>
-      <c r="AE17">
-        <v>2</v>
-      </c>
-      <c r="AF17">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>7</v>
       </c>
       <c r="AG17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH17">
-        <v>2</v>
-      </c>
-      <c r="AI17">
-        <v>2</v>
-      </c>
-      <c r="AJ17">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>5</v>
       </c>
       <c r="AK17">
-        <v>2</v>
-      </c>
-      <c r="AL17">
-        <v>2</v>
-      </c>
-      <c r="AM17">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>6</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>2</v>
-      </c>
-      <c r="AP17">
-        <v>2</v>
-      </c>
-      <c r="AQ17">
-        <v>2</v>
-      </c>
-      <c r="AR17">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>1</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2</v>
-      </c>
-      <c r="AU17">
-        <v>2</v>
-      </c>
-      <c r="AV17">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>1</v>
       </c>
       <c r="AW17">
-        <v>2</v>
-      </c>
-      <c r="AX17">
-        <v>2</v>
-      </c>
-      <c r="AY17">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>1</v>
       </c>
       <c r="AZ17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD17">
         <v>2</v>
@@ -4721,19 +4774,19 @@
         <v>2</v>
       </c>
       <c r="BG17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BK17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL17">
         <v>2</v>
@@ -4742,40 +4795,40 @@
         <v>2</v>
       </c>
       <c r="BN17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BQ17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BR17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BU17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BV17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BX17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BY17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BZ17">
         <v>2</v>
@@ -4787,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="CC17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CD17">
         <v>2</v>
@@ -4796,10 +4849,10 @@
         <v>2</v>
       </c>
       <c r="CF17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CG17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:85" x14ac:dyDescent="0.45">
@@ -4816,19 +4869,19 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -4852,22 +4905,22 @@
         <v>2</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W18">
         <v>2</v>
@@ -4879,25 +4932,25 @@
         <v>2</v>
       </c>
       <c r="Z18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG18">
         <v>2</v>
@@ -4906,55 +4959,55 @@
         <v>2</v>
       </c>
       <c r="AI18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ18">
         <v>2</v>
@@ -5038,16 +5091,16 @@
         <v>2</v>
       </c>
       <c r="CA18">
-        <v>2</v>
-      </c>
-      <c r="CB18">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>9</v>
       </c>
       <c r="CC18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CD18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CE18">
         <v>2</v>
@@ -5304,7 +5357,7 @@
         <v>2</v>
       </c>
       <c r="CD19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CE19">
         <v>2</v>

--- a/GameJam9/GameJam9/Content/Maptest2.xlsx
+++ b/GameJam9/GameJam9/Content/Maptest2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="19">
   <si>
     <t>E2</t>
   </si>
@@ -84,6 +84,14 @@
   </si>
   <si>
     <t>L3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -481,7 +489,7 @@
   <dimension ref="A1:CG19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BQ7" sqref="BQ7"/>
+      <selection activeCell="BG13" sqref="BG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1767,8 +1775,8 @@
       <c r="CF5">
         <v>2</v>
       </c>
-      <c r="CG5">
-        <v>0</v>
+      <c r="CG5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:85" x14ac:dyDescent="0.45">
@@ -2200,8 +2208,8 @@
       <c r="BE7">
         <v>2</v>
       </c>
-      <c r="BF7">
-        <v>0</v>
+      <c r="BF7" t="s">
+        <v>17</v>
       </c>
       <c r="BG7">
         <v>0</v>
@@ -2279,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="CF7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CG7">
         <v>0</v>
@@ -2532,8 +2540,8 @@
       <c r="CD8">
         <v>0</v>
       </c>
-      <c r="CE8">
-        <v>0</v>
+      <c r="CE8" t="s">
+        <v>18</v>
       </c>
       <c r="CF8">
         <v>0</v>
@@ -3267,8 +3275,8 @@
       <c r="BR11">
         <v>2</v>
       </c>
-      <c r="BS11">
-        <v>0</v>
+      <c r="BS11" t="s">
+        <v>18</v>
       </c>
       <c r="BT11">
         <v>0</v>
@@ -3479,8 +3487,8 @@
       <c r="BC12">
         <v>0</v>
       </c>
-      <c r="BD12">
-        <v>0</v>
+      <c r="BD12" t="s">
+        <v>18</v>
       </c>
       <c r="BE12">
         <v>0</v>
@@ -3488,8 +3496,8 @@
       <c r="BF12">
         <v>0</v>
       </c>
-      <c r="BG12" t="s">
-        <v>8</v>
+      <c r="BG12">
+        <v>0</v>
       </c>
       <c r="BH12">
         <v>0</v>
@@ -3954,8 +3962,8 @@
       <c r="AP14">
         <v>0</v>
       </c>
-      <c r="AQ14">
-        <v>0</v>
+      <c r="AQ14" t="s">
+        <v>18</v>
       </c>
       <c r="AR14">
         <v>0</v>

--- a/GameJam9/GameJam9/Content/Maptest2.xlsx
+++ b/GameJam9/GameJam9/Content/Maptest2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
   <si>
     <t>E2</t>
   </si>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>L1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>L2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -92,6 +88,10 @@
   </si>
   <si>
     <t>E5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -489,7 +489,7 @@
   <dimension ref="A1:CG19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BG13" sqref="BG13"/>
+      <selection activeCell="CD18" sqref="CD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="BH2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI2">
         <v>2</v>
@@ -1178,16 +1178,16 @@
         <v>2</v>
       </c>
       <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="BF3">
+        <v>2</v>
       </c>
       <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="BH3">
+        <v>2</v>
       </c>
       <c r="BI3">
         <v>2</v>
@@ -1199,7 +1199,7 @@
         <v>2</v>
       </c>
       <c r="BL3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM3">
         <v>2</v>
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF4">
         <v>2</v>
@@ -1456,16 +1456,16 @@
         <v>2</v>
       </c>
       <c r="BL4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="BN4">
+        <v>2</v>
       </c>
       <c r="BO4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP4">
         <v>2</v>
@@ -1692,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF5">
         <v>2</v>
@@ -1722,7 +1722,7 @@
         <v>2</v>
       </c>
       <c r="BO5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP5">
         <v>2</v>
@@ -1776,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="CG5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:85" x14ac:dyDescent="0.45">
@@ -1979,16 +1979,16 @@
         <v>2</v>
       </c>
       <c r="BO6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP6">
-        <v>0</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="BQ6">
+        <v>2</v>
       </c>
       <c r="BR6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS6">
         <v>2</v>
@@ -2209,7 +2209,7 @@
         <v>2</v>
       </c>
       <c r="BF7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BG7">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="BO7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP7">
         <v>2</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="CE8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="CF8">
         <v>0</v>
@@ -2970,11 +2970,11 @@
       <c r="BB10">
         <v>0</v>
       </c>
-      <c r="BC10">
-        <v>0</v>
+      <c r="BC10" t="s">
+        <v>17</v>
       </c>
       <c r="BD10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE10">
         <v>0</v>
@@ -3003,8 +3003,8 @@
       <c r="BM10">
         <v>2</v>
       </c>
-      <c r="BN10">
-        <v>0</v>
+      <c r="BN10" t="s">
+        <v>17</v>
       </c>
       <c r="BO10">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="BD11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE11">
         <v>0</v>
@@ -3276,7 +3276,7 @@
         <v>2</v>
       </c>
       <c r="BS11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BT11">
         <v>0</v>
@@ -3487,8 +3487,8 @@
       <c r="BC12">
         <v>0</v>
       </c>
-      <c r="BD12" t="s">
-        <v>18</v>
+      <c r="BD12">
+        <v>0</v>
       </c>
       <c r="BE12">
         <v>0</v>
@@ -3962,8 +3962,8 @@
       <c r="AP14">
         <v>0</v>
       </c>
-      <c r="AQ14" t="s">
-        <v>18</v>
+      <c r="AQ14">
+        <v>0</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4252,20 +4252,20 @@
       <c r="BA15">
         <v>0</v>
       </c>
-      <c r="BB15">
-        <v>0</v>
+      <c r="BB15" t="s">
+        <v>18</v>
       </c>
       <c r="BC15" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD15" t="s">
         <v>12</v>
       </c>
-      <c r="BD15" t="s">
+      <c r="BE15" t="s">
         <v>13</v>
       </c>
-      <c r="BE15" t="s">
+      <c r="BF15" t="s">
         <v>14</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>15</v>
       </c>
       <c r="BG15">
         <v>0</v>
@@ -4683,13 +4683,13 @@
         <v>2</v>
       </c>
       <c r="Z17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -4848,10 +4848,10 @@
         <v>2</v>
       </c>
       <c r="CC17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CD17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CE17">
         <v>2</v>
@@ -5099,13 +5099,13 @@
         <v>2</v>
       </c>
       <c r="CA18">
-        <v>0</v>
-      </c>
-      <c r="CB18" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="CB18">
+        <v>2</v>
       </c>
       <c r="CC18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CD18">
         <v>0</v>

--- a/GameJam9/GameJam9/Content/Maptest2.xlsx
+++ b/GameJam9/GameJam9/Content/Maptest2.xlsx
@@ -489,7 +489,7 @@
   <dimension ref="A1:CG19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CD18" sqref="CD18"/>
+      <selection activeCell="BB7" sqref="BB7:BB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/GameJam9/GameJam9/Content/Maptest2.xlsx
+++ b/GameJam9/GameJam9/Content/Maptest2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="19">
   <si>
     <t>E2</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>d</t>
   </si>
   <si>
     <t>P</t>
@@ -92,6 +89,10 @@
   </si>
   <si>
     <t>L1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -489,7 +490,7 @@
   <dimension ref="A1:CG19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BB7" sqref="BB7:BB14"/>
+      <selection activeCell="CC12" sqref="CC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1776,7 +1777,7 @@
         <v>2</v>
       </c>
       <c r="CG5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:85" x14ac:dyDescent="0.45">
@@ -2209,7 +2210,7 @@
         <v>2</v>
       </c>
       <c r="BF7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BG7">
         <v>0</v>
@@ -2541,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="CE8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="CF8">
         <v>0</v>
@@ -2648,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="AG9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -2917,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="AK10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -2971,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="BC10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD10">
         <v>0</v>
@@ -3004,7 +3005,7 @@
         <v>2</v>
       </c>
       <c r="BN10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BO10">
         <v>0</v>
@@ -3276,7 +3277,7 @@
         <v>2</v>
       </c>
       <c r="BS11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BT11">
         <v>0</v>
@@ -3817,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="CB13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="CC13">
         <v>3</v>
@@ -4133,139 +4134,139 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <v>2</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>2</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD15" t="s">
         <v>11</v>
       </c>
-      <c r="O15" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>2</v>
-      </c>
-      <c r="Y15">
-        <v>2</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
-      <c r="AW15">
-        <v>2</v>
-      </c>
-      <c r="AX15">
-        <v>0</v>
-      </c>
-      <c r="AY15">
-        <v>0</v>
-      </c>
-      <c r="AZ15">
-        <v>0</v>
-      </c>
-      <c r="BA15">
-        <v>0</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>18</v>
-      </c>
-      <c r="BC15" t="s">
+      <c r="BE15" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF15" t="s">
         <v>13</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>12</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>13</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>14</v>
       </c>
       <c r="BG15">
         <v>0</v>
@@ -4351,10 +4352,10 @@
     </row>
     <row r="16" spans="1:85" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -4525,19 +4526,19 @@
         <v>3</v>
       </c>
       <c r="BG16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BH16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BI16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ16" t="s">
         <v>4</v>
       </c>
       <c r="BK16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BL16">
         <v>3</v>
@@ -4546,16 +4547,16 @@
         <v>3</v>
       </c>
       <c r="BN16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BO16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BP16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BQ16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BR16" t="s">
         <v>4</v>
@@ -4683,13 +4684,13 @@
         <v>2</v>
       </c>
       <c r="Z17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -4698,10 +4699,10 @@
         <v>1</v>
       </c>
       <c r="AE17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG17">
         <v>3</v>
@@ -4712,8 +4713,8 @@
       <c r="AI17" t="s">
         <v>1</v>
       </c>
-      <c r="AJ17" t="s">
-        <v>5</v>
+      <c r="AJ17">
+        <v>0</v>
       </c>
       <c r="AK17">
         <v>0</v>
@@ -4722,7 +4723,7 @@
         <v>1</v>
       </c>
       <c r="AM17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN17">
         <v>0</v>
@@ -4731,10 +4732,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR17" t="s">
         <v>1</v>
